--- a/expense/电磁组/2024-09-21/汇总表.xlsx
+++ b/expense/电磁组/2024-09-21/汇总表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="167">
   <si>
     <t>编号</t>
   </si>
@@ -526,11 +526,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -614,24 +614,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -646,6 +630,22 @@
     <font>
       <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -668,16 +668,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -699,15 +700,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -753,7 +753,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -765,7 +819,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,13 +831,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -795,133 +915,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1016,15 +1016,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1036,6 +1027,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1080,162 +1095,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1245,7 +1245,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1354,7 +1354,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1402,16 +1402,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1757,12 +1748,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M94"/>
+  <dimension ref="A1:M96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomLeft" activeCell="K97" sqref="K97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3965,7 +3956,7 @@
         <v>145</v>
       </c>
       <c r="G81" s="27"/>
-      <c r="H81" s="52">
+      <c r="H81" s="34">
         <f>IF(SUM(E81:E94)&lt;F81,SUM(E81:E94),F81)</f>
         <v>491.79</v>
       </c>
@@ -3990,9 +3981,9 @@
       <c r="E82" s="26">
         <v>10</v>
       </c>
-      <c r="F82" s="53"/>
+      <c r="F82" s="10"/>
       <c r="G82" s="27"/>
-      <c r="H82" s="54"/>
+      <c r="H82" s="52"/>
       <c r="I82" s="46"/>
       <c r="J82" s="47"/>
       <c r="K82" s="48"/>
@@ -4014,9 +4005,9 @@
       <c r="E83" s="26">
         <v>22</v>
       </c>
-      <c r="F83" s="53"/>
+      <c r="F83" s="10"/>
       <c r="G83" s="27"/>
-      <c r="H83" s="54"/>
+      <c r="H83" s="52"/>
       <c r="I83" s="46"/>
       <c r="J83" s="47"/>
       <c r="K83" s="48"/>
@@ -4038,9 +4029,9 @@
       <c r="E84" s="26">
         <v>22</v>
       </c>
-      <c r="F84" s="53"/>
+      <c r="F84" s="10"/>
       <c r="G84" s="27"/>
-      <c r="H84" s="54"/>
+      <c r="H84" s="52"/>
       <c r="I84" s="46"/>
       <c r="J84" s="47"/>
       <c r="K84" s="48"/>
@@ -4062,9 +4053,9 @@
       <c r="E85" s="26">
         <v>22</v>
       </c>
-      <c r="F85" s="53"/>
+      <c r="F85" s="10"/>
       <c r="G85" s="27"/>
-      <c r="H85" s="54"/>
+      <c r="H85" s="52"/>
       <c r="I85" s="46"/>
       <c r="J85" s="47"/>
       <c r="K85" s="48"/>
@@ -4086,9 +4077,9 @@
       <c r="E86" s="26">
         <v>33.62</v>
       </c>
-      <c r="F86" s="53"/>
+      <c r="F86" s="10"/>
       <c r="G86" s="27"/>
-      <c r="H86" s="54"/>
+      <c r="H86" s="52"/>
       <c r="I86" s="46"/>
       <c r="J86" s="47"/>
       <c r="K86" s="48"/>
@@ -4110,9 +4101,9 @@
       <c r="E87" s="26">
         <v>33.62</v>
       </c>
-      <c r="F87" s="53"/>
+      <c r="F87" s="10"/>
       <c r="G87" s="27"/>
-      <c r="H87" s="54"/>
+      <c r="H87" s="52"/>
       <c r="I87" s="46"/>
       <c r="J87" s="47"/>
       <c r="K87" s="48"/>
@@ -4134,9 +4125,9 @@
       <c r="E88" s="26">
         <v>33.62</v>
       </c>
-      <c r="F88" s="53"/>
+      <c r="F88" s="10"/>
       <c r="G88" s="50"/>
-      <c r="H88" s="54"/>
+      <c r="H88" s="52"/>
       <c r="I88" s="46"/>
       <c r="J88" s="47"/>
       <c r="K88" s="48"/>
@@ -4158,9 +4149,9 @@
       <c r="E89" s="26">
         <v>33.62</v>
       </c>
-      <c r="F89" s="53"/>
+      <c r="F89" s="10"/>
       <c r="G89" s="50"/>
-      <c r="H89" s="54"/>
+      <c r="H89" s="52"/>
       <c r="I89" s="46"/>
       <c r="J89" s="47"/>
       <c r="K89" s="48"/>
@@ -4182,9 +4173,9 @@
       <c r="E90" s="26">
         <v>33.62</v>
       </c>
-      <c r="F90" s="53"/>
+      <c r="F90" s="10"/>
       <c r="G90" s="50"/>
-      <c r="H90" s="54"/>
+      <c r="H90" s="52"/>
       <c r="I90" s="46"/>
       <c r="J90" s="47"/>
       <c r="K90" s="48"/>
@@ -4206,9 +4197,9 @@
       <c r="E91" s="26">
         <v>55</v>
       </c>
-      <c r="F91" s="53"/>
+      <c r="F91" s="10"/>
       <c r="G91" s="50"/>
-      <c r="H91" s="54"/>
+      <c r="H91" s="52"/>
       <c r="I91" s="46"/>
       <c r="J91" s="47"/>
       <c r="K91" s="48"/>
@@ -4230,9 +4221,9 @@
       <c r="E92" s="26">
         <v>55</v>
       </c>
-      <c r="F92" s="53"/>
+      <c r="F92" s="10"/>
       <c r="G92" s="50"/>
-      <c r="H92" s="54"/>
+      <c r="H92" s="52"/>
       <c r="I92" s="46"/>
       <c r="J92" s="47"/>
       <c r="K92" s="48"/>
@@ -4254,9 +4245,9 @@
       <c r="E93" s="26">
         <v>55</v>
       </c>
-      <c r="F93" s="53"/>
+      <c r="F93" s="10"/>
       <c r="G93" s="50"/>
-      <c r="H93" s="54"/>
+      <c r="H93" s="52"/>
       <c r="I93" s="46"/>
       <c r="J93" s="47"/>
       <c r="K93" s="48"/>
@@ -4278,12 +4269,21 @@
       <c r="E94" s="26">
         <v>79</v>
       </c>
-      <c r="F94" s="53"/>
+      <c r="F94" s="10"/>
       <c r="G94" s="50"/>
-      <c r="H94" s="55"/>
-      <c r="I94" s="56"/>
-      <c r="J94" s="57"/>
-      <c r="K94" s="58"/>
+      <c r="H94" s="51"/>
+      <c r="I94" s="53"/>
+      <c r="J94" s="54"/>
+      <c r="K94" s="55"/>
+    </row>
+    <row r="96" spans="8:9">
+      <c r="H96" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I96" s="3">
+        <f>SUM(I3:I94)</f>
+        <v>8241.18</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A5:A78">

--- a/expense/电磁组/2024-09-21/汇总表.xlsx
+++ b/expense/电磁组/2024-09-21/汇总表.xlsx
@@ -1753,7 +1753,7 @@
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K97" sqref="K97"/>
+      <selection pane="bottomLeft" activeCell="J101" sqref="J101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/expense/电磁组/2024-09-21/汇总表.xlsx
+++ b/expense/电磁组/2024-09-21/汇总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12645"/>
+    <workbookView windowWidth="28800" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="167">
   <si>
     <t>编号</t>
   </si>
@@ -527,10 +527,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -606,39 +606,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -652,17 +621,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -678,7 +645,60 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -692,31 +712,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -753,7 +753,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -765,7 +765,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,13 +777,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -795,7 +867,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -807,19 +885,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -831,49 +909,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -885,43 +921,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1007,15 +1007,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1031,6 +1022,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1042,15 +1042,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1087,6 +1078,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1100,142 +1100,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1381,7 +1381,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1390,7 +1390,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1411,7 +1411,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1751,9 +1751,9 @@
   <dimension ref="A1:M96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J101" sqref="J101"/>
+      <selection pane="bottomLeft" activeCell="M63" sqref="M63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2746,7 +2746,9 @@
       <c r="J34" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="K34" s="45"/>
+      <c r="K34" s="45" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="7">
